--- a/Data/EC/NIT-9013718551.xlsx
+++ b/Data/EC/NIT-9013718551.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A007817-F52E-42C1-9814-881D3D6AB842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77181C1E-29F9-42C6-AD16-4AF3244822A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0ADAF46F-5CD5-4292-995B-47EBA4B3D4E2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B0C6FFD-6E7D-4B9A-9240-0C976E835C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,49 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33069750</t>
+  </si>
+  <si>
+    <t>KARINA LUCIA GALVIS PINEDA</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>1002372093</t>
   </si>
   <si>
     <t>LILIANA DEL VALLE MULET COMAS</t>
   </si>
   <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>33069750</t>
-  </si>
-  <si>
-    <t>KARINA LUCIA GALVIS PINEDA</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>2111</t>
   </si>
   <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC5AC83-412C-7898-9E1E-0191B42944DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82D3D6F-8FB6-3C10-4600-1BB5F6D1543E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E49C2-DFC4-4420-BB8C-81E433FED070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17215F-AADA-4E09-A097-70A79E94F379}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>12114</v>
+        <v>29073</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1064,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>12114</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1087,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1133,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>12114</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1248,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1271,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1294,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1317,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1340,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1363,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1409,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F32" s="18">
-        <v>29073</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
         <v>908526</v>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1455,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1478,16 +1478,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F35" s="24">
-        <v>36341</v>
+        <v>12114</v>
       </c>
       <c r="G35" s="24">
         <v>908526</v>

--- a/Data/EC/NIT-9013718551.xlsx
+++ b/Data/EC/NIT-9013718551.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77181C1E-29F9-42C6-AD16-4AF3244822A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF906782-2C4D-4DB0-8581-2748B704F9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B0C6FFD-6E7D-4B9A-9240-0C976E835C1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5B839B5-72C3-4155-925C-81B7880F6F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>KARINA LUCIA GALVIS PINEDA</t>
   </si>
   <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1002372093</t>
+  </si>
+  <si>
+    <t>LILIANA DEL VALLE MULET COMAS</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1002372093</t>
-  </si>
-  <si>
-    <t>LILIANA DEL VALLE MULET COMAS</t>
+    <t>2110</t>
   </si>
   <si>
     <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82D3D6F-8FB6-3C10-4600-1BB5F6D1543E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF8FEA6-15BE-1B30-487C-09D8299F6282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17215F-AADA-4E09-A097-70A79E94F379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E9F91-D76A-43E7-B3A0-A854531DEC5B}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29073</v>
+        <v>12114</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1064,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>12114</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1110,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1156,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>12114</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1248,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1271,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1294,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1317,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1340,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1363,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1409,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>29073</v>
       </c>
       <c r="G32" s="18">
         <v>908526</v>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1455,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1478,16 +1478,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F35" s="24">
-        <v>12114</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="24">
         <v>908526</v>
